--- a/SEER analysis/StageAtDiagnosis2004+.xlsx
+++ b/SEER analysis/StageAtDiagnosis2004+.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/janek/Documents/GitHub/CMOSTv2/SEER analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpoleszczuk\Documents\GitHub\CMOSTv2\SEER analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6B1058-6EA9-F246-A77C-2CE670C3753A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="1580" windowWidth="29740" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1695" yWindow="1575" windowWidth="29745" windowHeight="18975"/>
   </bookViews>
   <sheets>
     <sheet name="StageAtDiagnosis" sheetId="1" r:id="rId1"/>
@@ -94,7 +93,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -187,6 +186,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -212,7 +212,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -272,7 +272,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pl-PL"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -284,6 +284,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -465,7 +466,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pl-PL"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -477,6 +478,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -658,7 +660,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pl-PL"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -670,6 +672,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -851,7 +854,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pl-PL"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -863,6 +866,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1038,6 +1042,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1063,7 +1068,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1101,7 +1106,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1917714383"/>
@@ -1160,7 +1165,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1857645855"/>
@@ -1177,6 +1182,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1202,12 +1208,13 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1215,7 +1222,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1239,7 +1245,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1298,6 +1304,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1323,7 +1330,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1383,7 +1390,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pl-PL"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1395,6 +1402,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1576,7 +1584,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pl-PL"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1588,6 +1596,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1769,7 +1778,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pl-PL"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1781,6 +1790,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1962,7 +1972,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pl-PL"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1974,6 +1984,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2149,6 +2160,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2174,7 +2186,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pl-PL"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2212,7 +2224,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1917714383"/>
@@ -2271,7 +2283,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pl-PL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1857645855"/>
@@ -2288,6 +2300,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2313,12 +2326,13 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pl-PL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2326,7 +2340,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2350,7 +2363,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pl-PL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3840,16 +3853,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="107" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3869,7 +3882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3889,7 +3902,7 @@
         <v>0.29411764705882398</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3909,7 +3922,7 @@
         <v>0.302752293577982</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3929,7 +3942,7 @@
         <v>0.309782608695652</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -3949,7 +3962,7 @@
         <v>0.30200803212851401</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -3969,7 +3982,7 @@
         <v>0.29047415634344298</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3989,7 +4002,7 @@
         <v>0.28224259219782599</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4009,7 +4022,7 @@
         <v>0.26805991785455402</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -4029,7 +4042,7 @@
         <v>0.22882593457943901</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -4049,7 +4062,7 @@
         <v>0.237606278613473</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -4069,7 +4082,7 @@
         <v>0.23317463116440401</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -4089,7 +4102,7 @@
         <v>0.20178792889623801</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -4109,7 +4122,7 @@
         <v>0.19119730350251599</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -4129,7 +4142,7 @@
         <v>0.18086290573934699</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -4149,7 +4162,7 @@
         <v>0.17811130296188099</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -4169,7 +4182,7 @@
         <v>0.19493908153702</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -4189,7 +4202,7 @@
         <v>0.28205128205128199</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -4209,7 +4222,7 @@
         <v>0.28195488721804501</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -4229,7 +4242,7 @@
         <v>0.321656050955414</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -4249,7 +4262,7 @@
         <v>0.26987767584097899</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -4269,7 +4282,7 @@
         <v>0.28344934261407601</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -4289,7 +4302,7 @@
         <v>0.266020569620253</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -4309,7 +4322,7 @@
         <v>0.28131755018013399</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -4329,7 +4342,7 @@
         <v>0.23233687672520101</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -4349,7 +4362,7 @@
         <v>0.24278017764403201</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -4369,7 +4382,7 @@
         <v>0.23906382978723401</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -4389,7 +4402,7 @@
         <v>0.20807564936360401</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
@@ -4409,7 +4422,7 @@
         <v>0.20096269554753299</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -4429,7 +4442,7 @@
         <v>0.19124126574391401</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -4449,7 +4462,7 @@
         <v>0.191086560120133</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>21</v>
       </c>
